--- a/LCDP_User_Reviews/OracleApex_Reviews_100.xlsx
+++ b/LCDP_User_Reviews/OracleApex_Reviews_100.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IIITB-LJMU\IIITB-LJMU-Course-Material\MS Computer Science\Thesis\Low Code For Legacy Modernization Data\OracleAPEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B18757-4030-4E0D-8DF6-C9EFD4D20C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB420997-6E45-492E-90F7-6D90C26883D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t>Review 2023 (last 12 months)</t>
-  </si>
-  <si>
     <t>Business Use case</t>
   </si>
   <si>
@@ -639,13 +636,16 @@
   </si>
   <si>
     <t>Easy report generation. User community.</t>
+  </si>
+  <si>
+    <t>Latest 100 reviews</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,13 +653,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -702,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -712,8 +726,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -998,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,8 +1024,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="C1" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -1020,13 +1033,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1034,13 +1047,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="72" x14ac:dyDescent="0.3">
@@ -1048,13 +1061,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1062,13 +1075,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
@@ -1076,13 +1089,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1090,13 +1103,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1104,13 +1117,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -1118,13 +1131,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1132,13 +1145,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1146,13 +1159,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1160,13 +1173,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1174,13 +1187,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1188,13 +1201,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
@@ -1202,13 +1215,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -1216,13 +1229,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -1230,13 +1243,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1244,13 +1257,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1258,13 +1271,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1272,13 +1285,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1286,13 +1299,13 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1300,13 +1313,13 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
@@ -1314,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
@@ -1328,13 +1341,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
@@ -1342,13 +1355,13 @@
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
@@ -1356,13 +1369,13 @@
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1370,1063 +1383,1063 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="3" t="s">
+    </row>
+    <row r="30" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <v>33</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <v>37</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <v>38</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B42" s="2">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
+        <v>40</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B45" s="2">
+        <v>42</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <v>43</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="2">
+        <v>44</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B48" s="2">
+        <v>45</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="2">
+        <v>46</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="2">
+        <v>47</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="2">
+        <v>48</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B52" s="2">
+        <v>49</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B54" s="2">
+        <v>51</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="2">
+        <v>52</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B56" s="2">
+        <v>53</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B57" s="2">
         <v>54</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="5">
-        <v>26</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="C57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="2">
+        <v>55</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="2">
+        <v>56</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B60" s="2">
         <v>57</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="5">
-        <v>27</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="C60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B61" s="2">
+        <v>58</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="2">
+        <v>59</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="2">
         <v>60</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="5">
-        <v>28</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="C63" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B64" s="2">
+        <v>61</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B65" s="2">
+        <v>62</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B66" s="2">
         <v>63</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="5">
-        <v>29</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="C66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="2">
+        <v>64</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B68" s="2">
+        <v>65</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B69" s="2">
         <v>66</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B33" s="5">
-        <v>30</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="C69" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B70" s="2">
+        <v>67</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="2">
+        <v>68</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="2">
         <v>69</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="5">
-        <v>31</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="C72" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="2">
+        <v>70</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B74" s="2">
+        <v>71</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="2">
         <v>72</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="5">
-        <v>32</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="C75" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B76" s="2">
         <v>73</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="C76" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="2">
         <v>74</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="C77" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="5">
-        <v>33</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="C78" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B79" s="2">
+        <v>76</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="2">
+        <v>77</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B81" s="2">
         <v>78</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B37" s="5">
-        <v>34</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="C81" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="2">
+        <v>79</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B83" s="2">
         <v>80</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="C83" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B84" s="2">
         <v>81</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B38" s="5">
-        <v>35</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="C84" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B85" s="2">
+        <v>82</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B86" s="2">
+        <v>83</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="2">
         <v>84</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B39" s="5">
-        <v>36</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="C87" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B88" s="2">
+        <v>85</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="2">
         <v>86</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B40" s="5">
-        <v>37</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="C89" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B90" s="2">
+        <v>87</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B91" s="2">
+        <v>88</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B92" s="2">
         <v>89</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B41" s="5">
-        <v>38</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="C92" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B93" s="2">
+        <v>90</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B94" s="2">
         <v>91</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B42" s="5">
-        <v>39</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="C94" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" s="2">
+        <v>92</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B96" s="2">
         <v>93</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B43" s="5">
-        <v>40</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="C96" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="2">
+        <v>94</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="2">
         <v>95</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B44" s="5">
-        <v>41</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="C98" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="2">
         <v>96</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="C99" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B100" s="2">
+        <v>97</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B101" s="2">
         <v>98</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B45" s="5">
-        <v>42</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="C101" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B102" s="2">
         <v>99</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B46" s="5">
-        <v>43</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="6" t="s">
+      <c r="C102" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="5">
-        <v>44</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="5">
-        <v>45</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="5">
-        <v>46</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B50" s="5">
-        <v>47</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B51" s="5">
-        <v>48</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B52" s="5">
-        <v>49</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B53" s="5">
-        <v>50</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B54" s="5">
-        <v>51</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="5">
-        <v>52</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B56" s="5">
-        <v>53</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B57" s="5">
-        <v>54</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="5">
-        <v>55</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="5">
-        <v>56</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="5">
-        <v>57</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B61" s="5">
-        <v>58</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="5">
-        <v>59</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="5">
-        <v>60</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B64" s="5">
-        <v>61</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B65" s="5">
-        <v>62</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B66" s="5">
-        <v>63</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="5">
-        <v>64</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B68" s="5">
-        <v>65</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B69" s="5">
-        <v>66</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B70" s="5">
-        <v>67</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="5">
-        <v>68</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="5">
-        <v>69</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="5">
-        <v>70</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B74" s="5">
-        <v>71</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="5">
-        <v>72</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B76" s="5">
-        <v>73</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="5">
-        <v>74</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="5">
-        <v>75</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B79" s="5">
-        <v>76</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="5">
-        <v>77</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B81" s="5">
-        <v>78</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="5">
-        <v>79</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B83" s="5">
-        <v>80</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B84" s="5">
-        <v>81</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B85" s="5">
-        <v>82</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B86" s="5">
-        <v>83</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="5">
-        <v>84</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B88" s="5">
-        <v>85</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="5">
-        <v>86</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B90" s="5">
-        <v>87</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B91" s="5">
-        <v>88</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B92" s="5">
-        <v>89</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B93" s="5">
-        <v>90</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B94" s="5">
-        <v>91</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="5">
-        <v>92</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B96" s="5">
-        <v>93</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="5">
-        <v>94</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="5">
-        <v>95</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="5">
-        <v>96</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B100" s="5">
-        <v>97</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B101" s="5">
-        <v>98</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B102" s="5">
-        <v>99</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="6" t="s">
+      <c r="C103" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="5">
-        <v>100</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="E103" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
